--- a/biology/Botanique/Beurré_de_Rance/Beurré_de_Rance.xlsx
+++ b/biology/Botanique/Beurré_de_Rance/Beurré_de_Rance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Rance</t>
+          <t>Beurré_de_Rance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré de Rance est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Rance</t>
+          <t>Beurré_de_Rance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beurré Rance.
 Bon Chrétien de Rance.
@@ -520,7 +534,7 @@
 Beurré Bon Chrétien.
 Beurré de Pentecôte.
 Hardenpont de printemps.
-Beurré du Rhin[1].</t>
+Beurré du Rhin.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Rance</t>
+          <t>Beurré_de_Rance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette poire est très ancienne. Elle figure dans Le Lectier, Catalogue des arbres cultivés dans son verger et plant, de 1628[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette poire est très ancienne. Elle figure dans Le Lectier, Catalogue des arbres cultivés dans son verger et plant, de 1628.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Rance</t>
+          <t>Beurré_de_Rance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre est faible, les rameaux étalés sont peu nombreux, avec des lenticelles très petites, très espacées et les coussinets presque nuls[1].
-Les yeux sont moyens, ovoïdes, duveteux, noyés dans l'écorce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est faible, les rameaux étalés sont peu nombreux, avec des lenticelles très petites, très espacées et les coussinets presque nuls.
+Les yeux sont moyens, ovoïdes, duveteux, noyés dans l'écorce.
 L'arbre ne se greffe que sur franc, sa vigueur est insuffisante sur cognassier.
 </t>
         </is>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Rance</t>
+          <t>Beurré_de_Rance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,10 +630,12 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est volumineux, avec un pédoncule long ou court. La poire est ventrue et bosselée, avec un œil moyen et mi-clos, faiblement enfoncé.
-La peau est très rude et très épaisse, vert terne bronzé, ponctuée et fortement marbrée de gris clair. Elle est maculée de fauve autour de l'œil et du pédoncule[1] .
+La peau est très rude et très épaisse, vert terne bronzé, ponctuée et fortement marbrée de gris clair. Elle est maculée de fauve autour de l'œil et du pédoncule .
 Maturité variable, de novembre à février et parfois jusqu'à mars-avril.
 </t>
         </is>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Rance</t>
+          <t>Beurré_de_Rance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poire de première qualité, excellente pour faire des compotes[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poire de première qualité, excellente pour faire des compotes.
 </t>
         </is>
       </c>
